--- a/Doc/design/系统框图.xlsx
+++ b/Doc/design/系统框图.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="4" r:id="rId1"/>
-    <sheet name="Block Diagram" sheetId="2" r:id="rId2"/>
+    <sheet name="BLE Module Block Diagram" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
@@ -16,16 +16,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>简易系统框图</t>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvMonitor主控板与Sensor模块通信方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如上图所示，每个Sensor Board上有一个I2C中继器，用紫色方块表示。同时，在EnvMonitor一端也有中继器。目的有两个：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个Sensor Board的配置信息都写入在Sensor Board板载的EEPROM中，并且EnvMonitor通过单总线读取这些信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置信息主要包括如下一些分类，但是不限于这些:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 热拔插。在总线通信的过程中，可以接入其他设备，而不会影响总线通信。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 减少设备之间的干扰和降低总线电容特性</t>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvMonitor主板与Sensor Board的数据通信，有I2C和ADC两种，以I2C为主。EnvMonitor预留有两路I2C，最大接入设备限制为10个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信类型：I2C还是ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器类型：标示采集何种环境信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信地址：对于I2C通信方式就是I2C从机设备地址。ADC就是所使用的ADC编号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信频率：多久需要EnvMonitor采样一次数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信数据量：每次通信的数据的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信命令：由于不同的传感器，采集数据的命令可能不一致，此处保存采样命令。对于I2C，就是需要读写哪些寄存器才能或得数据。而对于ADC则是采样的ADC值与实际物理量之间的转换关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验码：对存储在设备中的配置信息的校验。防止意外更改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图中，蓝色虚线框表示EnvMonitor主控板，深蓝色小方块表示是EnvMonitor板载资源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色的线表示从EnvMonitor引出的外部接口，黑色的线条则是EnvMonitor内部的连线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深红色的方框表示传感器模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于ADC，只是作为备用通信方式使用。当以模拟量为输出的传感器的个数比较少，可以直接考虑使用ADC总线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvMonitor数据暂存方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到NRF51822本身只用256KB ROM，而且蓝牙协议栈占用了固定的80KB，只剩下176KB的空间。当设备离线时，根本不够保存采集到的环境数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故增加一块SPI Flash，保存一定时间的离线数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小容量，有待计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvMonitor GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余GPIO全部引出，并且有一半上拉，一半下拉。或者上下拉都有，焊接时确定使用哪个，方便调试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,8 +166,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +186,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -82,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -92,6 +233,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1947,14 +2101,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>515470</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1963,8 +2117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12490076" y="735106"/>
-          <a:ext cx="1055594" cy="350744"/>
+          <a:off x="11766176" y="806824"/>
+          <a:ext cx="1053353" cy="526676"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2010,6 +2164,17 @@
               </a:solidFill>
             </a:rPr>
             <a:t>BlueTooth 4.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BLE</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -2166,6 +2331,5609 @@
             </a:rPr>
             <a:t>app</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3891643" y="1700892"/>
+          <a:ext cx="4054928" cy="4612822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NRF51822</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10056</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7762875" y="1909330"/>
+          <a:ext cx="2052205" cy="5726"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244415</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251113</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7769165" y="2085371"/>
+          <a:ext cx="2058903" cy="1470"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246591</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321135</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9823546" y="1658029"/>
+          <a:ext cx="758612" cy="626466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DS2484</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>224518</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7228794" y="1758871"/>
+          <a:ext cx="554492" cy="348461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I2C0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>102255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2812901" y="1030544"/>
+          <a:ext cx="8422139" cy="6486557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>78988</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71993</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10646182" y="1951463"/>
+          <a:ext cx="5248952" cy="11591"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>356153</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11355457" y="1755913"/>
+          <a:ext cx="607859" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>单总线</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381018</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140811</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="439929" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8630496" y="1706224"/>
+          <a:ext cx="439929" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I2C0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34147</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91104</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="组合 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4919662" y="2908843"/>
+          <a:ext cx="8592360" cy="439811"/>
+          <a:chOff x="7263866" y="2451620"/>
+          <a:chExt cx="8613895" cy="447265"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="直接连接符 21"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7777380" y="2658694"/>
+            <a:ext cx="8075533" cy="10041"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="直接连接符 22"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7783670" y="2824346"/>
+            <a:ext cx="8094091" cy="15456"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="TextBox 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8607729" y="2451620"/>
+            <a:ext cx="439929" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>I2C1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="矩形 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7263866" y="2542733"/>
+            <a:ext cx="521806" cy="356152"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>I2C1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163096</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9193696" y="2592457"/>
+          <a:ext cx="6692347" cy="5726"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9318</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9318</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8909240" y="2064699"/>
+          <a:ext cx="0" cy="722398"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11595</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8948530" y="2782957"/>
+          <a:ext cx="6937513" cy="17321"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>255984</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>255984</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9155906" y="1893094"/>
+          <a:ext cx="0" cy="686679"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>226217</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="椭圆 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9126139" y="1869280"/>
+          <a:ext cx="71439" cy="65486"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>667086</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53916</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="椭圆 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8882399" y="2037747"/>
+          <a:ext cx="71439" cy="65486"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191536</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>115440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7233772" y="4019522"/>
+          <a:ext cx="522008" cy="393784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SPI0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202417</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46463</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7766661" y="4066921"/>
+          <a:ext cx="1219363" cy="3274"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202754</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>41817</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接连接符 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7766998" y="4218109"/>
+          <a:ext cx="1214380" cy="769"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205163</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>41817</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55756</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接连接符 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7769407" y="4351445"/>
+          <a:ext cx="1211971" cy="2177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37171</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111714</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8976732" y="3916866"/>
+          <a:ext cx="762202" cy="621396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SPI</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flash</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>275896</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>101148</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接连接符 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7790793" y="4821621"/>
+          <a:ext cx="8023321" cy="9829"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282465</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107717</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接连接符 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7797362" y="5018689"/>
+          <a:ext cx="8023321" cy="9829"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261331</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="4807912"/>
+          <a:ext cx="584353" cy="397826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UART</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270015</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>79751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95267</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>89580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接连接符 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7813815" y="5479065"/>
+          <a:ext cx="8054852" cy="9829"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>272146</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99055</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>26154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接连接符 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7815946" y="5589811"/>
+          <a:ext cx="8056509" cy="9829"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277585</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>102837</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直接连接符 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7821385" y="5693460"/>
+          <a:ext cx="8054852" cy="9829"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>288467</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>113719</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7832267" y="5802553"/>
+          <a:ext cx="8054852" cy="9829"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>367741</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>264637</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7242306" y="5449009"/>
+          <a:ext cx="584353" cy="397826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ADC</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294249</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>250707</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>49956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762720" y="5546912"/>
+          <a:ext cx="1323575" cy="386132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GPIO</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435763</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435763</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接连接符 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5904234" y="5921188"/>
+          <a:ext cx="0" cy="905755"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88060</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120718</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5556531" y="6821501"/>
+          <a:ext cx="716216" cy="298077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>彩色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LED</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207162</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8018</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="上下箭头 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083837" y="6071508"/>
+          <a:ext cx="486656" cy="2053317"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599049</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="766044" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6751078" y="6468996"/>
+          <a:ext cx="766044" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>all rest of </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>GPIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>644769</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="4542692"/>
+          <a:ext cx="607859" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调试用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131885</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1860830" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6330462" y="1128346"/>
+          <a:ext cx="1860830" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>EnvMonitor </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>主控板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638149</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28082</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="矩形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11640686" y="3994958"/>
+          <a:ext cx="765250" cy="622121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Board</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>351241</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425784</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="矩形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12729095" y="3994958"/>
+          <a:ext cx="762201" cy="622121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Board</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61284</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>135827</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="矩形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13814455" y="3994958"/>
+          <a:ext cx="762201" cy="622121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Board</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>458985</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533527</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="矩形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14899814" y="3994958"/>
+          <a:ext cx="762201" cy="622121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Board</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676786</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61422</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40921</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="94" name="组合 93"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9354061" y="1916030"/>
+          <a:ext cx="70436" cy="2068241"/>
+          <a:chOff x="11665628" y="1905001"/>
+          <a:chExt cx="71439" cy="2056209"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="83" name="直接连接符 82"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11699742" y="1935323"/>
+            <a:ext cx="3226" cy="2025887"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="椭圆 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11665628" y="1905001"/>
+            <a:ext cx="71439" cy="63292"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>386021</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457460</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32118</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="95" name="组合 94"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10434896" y="1906003"/>
+          <a:ext cx="71439" cy="2069465"/>
+          <a:chOff x="13004131" y="1894974"/>
+          <a:chExt cx="71439" cy="2057433"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="87" name="直接连接符 86"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="13039223" y="1925052"/>
+            <a:ext cx="3226" cy="2027355"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="椭圆 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13004131" y="1894974"/>
+            <a:ext cx="71439" cy="63292"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>100272</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171711</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="96" name="组合 95"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11520747" y="1906002"/>
+          <a:ext cx="71439" cy="2070004"/>
+          <a:chOff x="14127079" y="1894973"/>
+          <a:chExt cx="71439" cy="2057972"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="88" name="直接连接符 87"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="14169189" y="1927058"/>
+            <a:ext cx="3226" cy="2025887"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="椭圆 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14127079" y="1894973"/>
+            <a:ext cx="71439" cy="63292"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>483280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>554719</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33195</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="97" name="组合 96"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12589555" y="1913021"/>
+          <a:ext cx="71439" cy="2063524"/>
+          <a:chOff x="15252032" y="1901992"/>
+          <a:chExt cx="71439" cy="2051492"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="89" name="直接连接符 88"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="15284102" y="1927595"/>
+            <a:ext cx="3226" cy="2025889"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="椭圆 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15252032" y="1901992"/>
+            <a:ext cx="71439" cy="63292"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>245645</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>248871</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直接连接符 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11921290" y="2732171"/>
+          <a:ext cx="3226" cy="1208743"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>491290</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直接连接符 99"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12148457" y="2601542"/>
+          <a:ext cx="1433" cy="1447944"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>675631</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>678857</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直接连接符 101"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13020031" y="2791756"/>
+          <a:ext cx="3226" cy="1234812"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>235476</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直接连接符 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13264243" y="2601542"/>
+          <a:ext cx="1433" cy="1447944"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279699</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="椭圆 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11866860" y="2759386"/>
+          <a:ext cx="71439" cy="64667"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528639</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="椭圆 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="2569029"/>
+          <a:ext cx="71439" cy="64667"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22453</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="椭圆 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12981214" y="2764972"/>
+          <a:ext cx="71439" cy="64667"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>267381</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="椭圆 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13226142" y="2558143"/>
+          <a:ext cx="71439" cy="64667"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428486</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直接连接符 108"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14177714" y="3285759"/>
+          <a:ext cx="3943" cy="702841"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>682357</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>687658</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直接连接符 109"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14435528" y="3169751"/>
+          <a:ext cx="5301" cy="830748"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>386442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457881</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="椭圆 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14139613" y="3251378"/>
+          <a:ext cx="71439" cy="62411"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>646637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30418</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56704</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="椭圆 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14399808" y="3088756"/>
+          <a:ext cx="71439" cy="62411"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99299</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>103242</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直接连接符 119"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15227787" y="3290406"/>
+          <a:ext cx="3943" cy="702841"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357113</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357768</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>51109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直接连接符 120"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="123" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15485601" y="3169752"/>
+          <a:ext cx="655" cy="835394"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61198</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>132637</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65996</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="椭圆 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15189686" y="3269963"/>
+          <a:ext cx="71439" cy="62411"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>321393</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>392832</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="椭圆 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15449881" y="3107341"/>
+          <a:ext cx="71439" cy="62411"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306439</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>383828</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="矩形 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11305743" y="6087717"/>
+          <a:ext cx="764846" cy="628182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Board</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>373128</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447672</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="矩形 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13353404" y="5977759"/>
+          <a:ext cx="757716" cy="618756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Board</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390187</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>462280</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="128" name="组合 127"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9067462" y="1919336"/>
+          <a:ext cx="72093" cy="4075616"/>
+          <a:chOff x="11665628" y="1905001"/>
+          <a:chExt cx="71439" cy="4050332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="129" name="直接连接符 128"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11699743" y="1935324"/>
+            <a:ext cx="6027" cy="4020009"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="椭圆 129"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11665628" y="1905001"/>
+            <a:ext cx="71439" cy="63292"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>488722</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560815</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>159083</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="133" name="组合 132"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11223397" y="1912767"/>
+          <a:ext cx="72093" cy="4075616"/>
+          <a:chOff x="11665628" y="1905001"/>
+          <a:chExt cx="71439" cy="4050332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="134" name="直接连接符 133"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11699743" y="1935324"/>
+            <a:ext cx="6027" cy="4020009"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="椭圆 134"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11665628" y="1905001"/>
+            <a:ext cx="71439" cy="63292"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>639794</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>639880</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直接连接符 135"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="137" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11624096" y="5455649"/>
+          <a:ext cx="86" cy="572056"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>602487</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>677273</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="椭圆 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11586789" y="5394360"/>
+          <a:ext cx="74786" cy="61289"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>59745</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68095</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直接连接符 147"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="127" idx="0"/>
+          <a:endCxn id="149" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13751933" y="5554495"/>
+          <a:ext cx="8350" cy="487927"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22352</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>97138</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="椭圆 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13714540" y="5488654"/>
+          <a:ext cx="74786" cy="65841"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322536</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>473622</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>59120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="矩形 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10819086" y="6033594"/>
+          <a:ext cx="151086" cy="369176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>407276</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558362</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>59120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="矩形 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13387552" y="6010603"/>
+          <a:ext cx="151086" cy="367862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>486104</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>637190</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>98533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="矩形 152"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14832725" y="4000499"/>
+          <a:ext cx="151086" cy="367862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85397</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>236483</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="矩形 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13748845" y="3980792"/>
+          <a:ext cx="151086" cy="367862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>367863</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518949</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="矩形 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12664966" y="3993930"/>
+          <a:ext cx="151086" cy="367862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>643759</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>111673</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="矩形 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11574518" y="3974223"/>
+          <a:ext cx="151086" cy="367862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523972</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675058</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>74190</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="矩形 156"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14878707" y="6939531"/>
+          <a:ext cx="151086" cy="362453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1568823" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="TextBox 157"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15015882" y="6880412"/>
+          <a:ext cx="1568823" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>Sensor Board </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>ROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>单总线通信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="矩形 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11344274" y="3990977"/>
+          <a:ext cx="457201" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>275581</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46982</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="矩形 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13515331" y="3991906"/>
+          <a:ext cx="457201" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>599431</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370832</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="矩形 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12467581" y="3982381"/>
+          <a:ext cx="457201" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>37456</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>494657</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="矩形 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14648806" y="3991906"/>
+          <a:ext cx="457201" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247006</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>58081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18407</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="矩形 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14172556" y="7601881"/>
+          <a:ext cx="457201" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>51547</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137833</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1568823" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="TextBox 163"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14662897" y="7510183"/>
+          <a:ext cx="1568823" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>I2C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>中继器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="矩形 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7715250" y="2590800"/>
+          <a:ext cx="457201" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>128589</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="矩形 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7724775" y="3171826"/>
+          <a:ext cx="457201" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2463,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2488,16 +8256,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A49:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Doc/design/系统框图.xlsx
+++ b/Doc/design/系统框图.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="4" r:id="rId1"/>
-    <sheet name="BLE Module Block Diagram" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="EnvMonitor MainBoard框图" sheetId="2" r:id="rId2"/>
+    <sheet name="粉尘传感器Module" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -157,6 +157,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8258,7 +8259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A49:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
@@ -8447,7 +8448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/Doc/design/系统框图.xlsx
+++ b/Doc/design/系统框图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>简易系统框图</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>剩余GPIO全部引出，并且有一半上拉，一半下拉。或者上下拉都有，焊接时确定使用哪个，方便调试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色LED留2个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留一个按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>●</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4159,8 +4174,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>294249</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4177,8 +4192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5762720" y="5546912"/>
-          <a:ext cx="1323575" cy="386132"/>
+          <a:off x="2276475" y="5657850"/>
+          <a:ext cx="2536707" cy="392856"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4231,14 +4246,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>435763</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683413</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>435763</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683413</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
@@ -4249,8 +4264,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5904234" y="5921188"/>
-          <a:ext cx="0" cy="905755"/>
+          <a:off x="2502688" y="6038850"/>
+          <a:ext cx="0" cy="922564"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4281,14 +4296,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88060</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335710</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120718</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368368</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
@@ -4299,8 +4314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5556531" y="6821501"/>
-          <a:ext cx="716216" cy="298077"/>
+          <a:off x="2154985" y="6955972"/>
+          <a:ext cx="718458" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7935,6 +7950,123 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176253</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176253</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直接连接符 104"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3367128" y="6057900"/>
+          <a:ext cx="0" cy="922564"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>547008</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="矩形 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="6975022"/>
+          <a:ext cx="718458" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Boot</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8259,8 +8391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A49:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8429,13 +8561,30 @@
     </row>
     <row r="80" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/design/系统框图.xlsx
+++ b/Doc/design/系统框图.xlsx
@@ -282,16 +282,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
+      <xdr:colOff>414619</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -300,8 +300,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1268505" y="361950"/>
-          <a:ext cx="1046630" cy="3403227"/>
+          <a:off x="224118" y="414618"/>
+          <a:ext cx="1042148" cy="3372971"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1746,14 +1746,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>10646</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>156324</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>64994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>182096</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>327774</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>17369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1763,8 +1763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1382246" y="1512794"/>
-          <a:ext cx="857250" cy="857250"/>
+          <a:off x="839883" y="1499347"/>
+          <a:ext cx="855009" cy="848846"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMultidocument">
           <a:avLst/>
@@ -1888,14 +1888,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1905,8 +1905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2326341" y="1796863"/>
-          <a:ext cx="607358" cy="169770"/>
+          <a:off x="1232647" y="1781735"/>
+          <a:ext cx="448234" cy="168089"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -2205,14 +2205,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>145678</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>317128</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>131670</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2222,8 +2222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="2714625"/>
-          <a:ext cx="857250" cy="855570"/>
+          <a:off x="829237" y="2689412"/>
+          <a:ext cx="855009" cy="848846"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMultidocument">
           <a:avLst/>
@@ -2280,14 +2280,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>145678</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>145675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>317128</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>98050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2297,8 +2297,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="507625"/>
-          <a:ext cx="857250" cy="857250"/>
+          <a:off x="829237" y="504263"/>
+          <a:ext cx="855009" cy="848846"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMultidocument">
           <a:avLst/>
@@ -2921,8 +2921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4919662" y="2908843"/>
-          <a:ext cx="8592360" cy="439811"/>
+          <a:off x="4906775" y="2855055"/>
+          <a:ext cx="8563225" cy="429725"/>
           <a:chOff x="7263866" y="2451620"/>
           <a:chExt cx="8613895" cy="447265"/>
         </a:xfrm>
@@ -4979,8 +4979,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9354061" y="1916030"/>
-          <a:ext cx="70436" cy="2068241"/>
+          <a:off x="9327727" y="1879051"/>
+          <a:ext cx="68195" cy="2027899"/>
           <a:chOff x="11665628" y="1905001"/>
           <a:chExt cx="71439" cy="2056209"/>
         </a:xfrm>
@@ -5095,8 +5095,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10434896" y="1906003"/>
-          <a:ext cx="71439" cy="2069465"/>
+          <a:off x="10404080" y="1869024"/>
+          <a:ext cx="71439" cy="2029123"/>
           <a:chOff x="13004131" y="1894974"/>
           <a:chExt cx="71439" cy="2057433"/>
         </a:xfrm>
@@ -5211,8 +5211,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11520747" y="1906002"/>
-          <a:ext cx="71439" cy="2070004"/>
+          <a:off x="11485448" y="1869023"/>
+          <a:ext cx="71439" cy="2029662"/>
           <a:chOff x="14127079" y="1894973"/>
           <a:chExt cx="71439" cy="2057972"/>
         </a:xfrm>
@@ -5327,8 +5327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12589555" y="1913021"/>
-          <a:ext cx="71439" cy="2063524"/>
+          <a:off x="12552015" y="1876042"/>
+          <a:ext cx="71439" cy="2023182"/>
           <a:chOff x="15252032" y="1901992"/>
           <a:chExt cx="71439" cy="2051492"/>
         </a:xfrm>
@@ -6563,8 +6563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9067462" y="1919336"/>
-          <a:ext cx="72093" cy="4075616"/>
+          <a:off x="9041128" y="1882357"/>
+          <a:ext cx="72093" cy="3998295"/>
           <a:chOff x="11665628" y="1905001"/>
           <a:chExt cx="71439" cy="4050332"/>
         </a:xfrm>
@@ -6679,8 +6679,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11223397" y="1912767"/>
-          <a:ext cx="72093" cy="4075616"/>
+          <a:off x="11190340" y="1875788"/>
+          <a:ext cx="72093" cy="3998295"/>
           <a:chOff x="11665628" y="1905001"/>
           <a:chExt cx="71439" cy="4050332"/>
         </a:xfrm>
@@ -7359,13 +7359,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>523972</xdr:colOff>
+      <xdr:colOff>243822</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>47913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>675058</xdr:colOff>
+      <xdr:colOff>394908</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>74190</xdr:rowOff>
     </xdr:to>
@@ -7376,7 +7376,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14878707" y="6939531"/>
+          <a:off x="12312557" y="6939531"/>
           <a:ext cx="151086" cy="362453"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7416,9 +7416,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1568823" cy="459100"/>
     <xdr:sp macro="" textlink="">
@@ -7428,7 +7428,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15015882" y="6880412"/>
+          <a:off x="12494559" y="6891618"/>
           <a:ext cx="1568823" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7464,16 +7464,14 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
             <a:t>配置</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
-            <a:t>ROM</a:t>
+            <a:t>EEPROM</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
-            <a:t>单总线通信</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8364,13 +8362,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8391,8 +8391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A49:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Doc/design/系统框图.xlsx
+++ b/Doc/design/系统框图.xlsx
@@ -2588,13 +2588,8 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>DS2484</a:t>
+            <a:t>DS2482</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2855,7 +2850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8630496" y="1706224"/>
+          <a:off x="6297724" y="1653605"/>
           <a:ext cx="439929" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2889,7 +2884,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>I2C0</a:t>
+            <a:t>I2C1</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -3006,7 +3001,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="8607729" y="2451620"/>
-            <a:ext cx="439929" cy="264560"/>
+            <a:ext cx="442532" cy="275358"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3039,7 +3034,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>I2C1</a:t>
+              <a:t>I2C0</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -8392,7 +8387,7 @@
   <dimension ref="A49:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
